--- a/docs/Vorlagen/Projektplanungen.xlsx
+++ b/docs/Vorlagen/Projektplanungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenplan" sheetId="1" r:id="rId1"/>
@@ -639,9 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -650,9 +647,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -667,6 +661,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -979,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H65472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
@@ -1572,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
@@ -1630,7 +1630,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1650,7 +1650,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="22"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="19">
         <v>41339</v>
       </c>
@@ -1668,7 +1668,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="19">
         <v>41339</v>
       </c>
@@ -1686,7 +1686,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="19">
         <v>41341</v>
       </c>
@@ -1704,7 +1704,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="19">
         <v>41341</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="19" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="19" t="s">
         <v>33</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="20" t="s">
         <v>33</v>
       </c>
@@ -1874,7 +1874,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="20" t="s">
         <v>33</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22"/>
+      <c r="A22" s="33"/>
       <c r="B22"/>
       <c r="C22"/>
     </row>
@@ -1999,14 +1999,14 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
@@ -2092,16 +2092,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="28.9" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D3" t="s">
@@ -2207,7 +2207,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="38" spans="1:1" ht="15">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
       </c>
     </row>
     <row r="46" spans="1:1" ht="15">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2404,71 +2404,71 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="15">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="15">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="15">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="B7" s="33"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="32"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
